--- a/medicine/Enfance/Sylvie_Desrosiers/Sylvie_Desrosiers.xlsx
+++ b/medicine/Enfance/Sylvie_Desrosiers/Sylvie_Desrosiers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sylvie Desrosiers, née le 28 août 1954 à Montréal (Québec)[1], est une écrivaine et une journaliste québécoise. Elle est l'auteure de vingt romans pour La Courte Échelle. Elle a aussi contribué à la revue Croc en tant qu'auteure et collaboratrice[2] et participé à l'organisation de plusieurs galas du festival Juste pour rire. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sylvie Desrosiers, née le 28 août 1954 à Montréal (Québec), est une écrivaine et une journaliste québécoise. Elle est l'auteure de vingt romans pour La Courte Échelle. Elle a aussi contribué à la revue Croc en tant qu'auteure et collaboratrice et participé à l'organisation de plusieurs galas du festival Juste pour rire. 
 Les 18 tomes de la série Notdog sont publiés à La Courte Échelle.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Qui a peur des fantômes ?, 1988  (ISBN 2-89021-073-1) (BNF 43420952)
 Mais qui va trouver le trésor ?, 1992
@@ -570,15 +584,17 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1991 - Finaliste du Prix Alvine-Bélisle
 1996 - Prix 12/17 Brive-Montréal
-1996 - Finaliste du Prix du Gouverneur général : littérature jeunesse de langue française - texte[3]
+1996 - Finaliste du Prix du Gouverneur général : littérature jeunesse de langue française - texte
 1996 - Palmarès Communication-Jeunesse des livres préférés des jeunes
 1997 - Médaille de la culture française
 2000 - Prix international du livre Espace-Enfants
-2008 - Prix du Gouverneur général : littérature jeunesse de langue française - texte[3]</t>
+2008 - Prix du Gouverneur général : littérature jeunesse de langue française - texte</t>
         </is>
       </c>
     </row>
